--- a/res/page/车场运营/月票管理/MonthTicketCertifiPage.xlsx
+++ b/res/page/车场运营/月票管理/MonthTicketCertifiPage.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="62">
   <si>
     <t>别名</t>
   </si>
@@ -76,12 +76,6 @@
   </si>
   <si>
     <t>//div[@class='modal-wrapper certifi_rule_modal']//label[text()='凭证名称']/following-sibling::div[1]//input</t>
-  </si>
-  <si>
-    <t>凭证种类</t>
-  </si>
-  <si>
-    <t>//div[@class='modal-wrapper certifi_rule_modal']//label[text()='凭证种类']/following-sibling::div[1]</t>
   </si>
   <si>
     <t>凭证状态</t>
@@ -242,9 +236,52 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,6 +290,13 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,52 +311,23 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -326,6 +341,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -333,15 +349,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -355,32 +372,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -401,7 +395,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,7 +437,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,7 +479,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,13 +497,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,25 +545,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,97 +569,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -625,29 +619,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -667,6 +649,44 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -681,32 +701,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -715,10 +709,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -727,133 +721,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1230,10 +1224,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C16384"/>
+  <dimension ref="A1:C16383"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A16" sqref="A13:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.25" defaultRowHeight="27" customHeight="1" outlineLevelCol="2"/>
@@ -1399,7 +1393,7 @@
       </c>
     </row>
     <row r="15" s="1" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -1410,13 +1404,13 @@
       </c>
     </row>
     <row r="16" s="1" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="7" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1427,7 +1421,7 @@
       <c r="B17" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="4" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1519,7 +1513,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" customHeight="1" spans="1:3">
+    <row r="26" s="2" customFormat="1" customHeight="1" spans="1:3">
       <c r="A26" s="4" t="s">
         <v>52</v>
       </c>
@@ -1574,17 +1568,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" s="2" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A31" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
+    <row r="31" s="2" customFormat="1" customHeight="1"/>
     <row r="32" s="2" customFormat="1" customHeight="1"/>
     <row r="33" s="2" customFormat="1" customHeight="1"/>
     <row r="34" s="2" customFormat="1" customHeight="1"/>
@@ -17937,7 +17921,6 @@
     <row r="16381" s="2" customFormat="1" customHeight="1"/>
     <row r="16382" s="2" customFormat="1" customHeight="1"/>
     <row r="16383" s="2" customFormat="1" customHeight="1"/>
-    <row r="16384" s="2" customFormat="1" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
